--- a/CSCI 198/11-1--11-30--360464 Foundation Hourly Time Effort Report 2020 .xlsx
+++ b/CSCI 198/11-1--11-30--360464 Foundation Hourly Time Effort Report 2020 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler.gillette\Documents\school\CSCI 198\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C72897-4BAB-4B63-AF26-2BD57FF1DB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8904205-1B32-474D-B4B9-48CD2BA04B8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="D460" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -3775,8 +3775,8 @@
   </sheetPr>
   <dimension ref="A1:AB1466"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="K19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4346,15 +4346,15 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="3"/>
-        <v>-19.499999999999993</v>
+        <v>-29.999999999999993</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="4"/>
-        <v>20.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="10"/>
-        <v>20.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="5"/>
@@ -4376,17 +4376,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="N18" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="11">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="R18" s="11">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="S18" s="43">
         <f t="shared" si="7"/>
@@ -4441,17 +4441,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N19" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="O19" s="39"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="R19" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="S19" s="43">
         <f t="shared" si="7"/>
@@ -4500,20 +4500,20 @@
         <v>45</v>
       </c>
       <c r="M20" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N20" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="R20" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S20" s="43">
         <f t="shared" si="7"/>
@@ -4633,17 +4633,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N22" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="O22" s="39"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="R22" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S22" s="43">
         <f t="shared" si="7"/>
@@ -4692,20 +4692,20 @@
         <v>48</v>
       </c>
       <c r="M23" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="N23" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="R23" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S23" s="43">
         <f t="shared" si="7"/>
@@ -4789,15 +4789,15 @@
       </c>
       <c r="D25" s="6">
         <f t="shared" si="3"/>
-        <v>-15.499999999999993</v>
+        <v>-29.999999999999993</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="4"/>
-        <v>24.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="10"/>
-        <v>24.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="5"/>
@@ -4819,17 +4819,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="N25" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="O25" s="39"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="11">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" si="6"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="S25" s="43">
         <f t="shared" si="7"/>
@@ -4881,17 +4881,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N26" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="R26" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S26" s="43">
         <f t="shared" si="7"/>
@@ -4913,17 +4913,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="N27" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="11">
         <f t="shared" si="9"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="R27" s="11">
         <f t="shared" si="6"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="S27" s="43">
         <f t="shared" si="7"/>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="Q37" s="105"/>
       <c r="R37" s="90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S37" s="91"/>
       <c r="V37" s="5" t="s">
@@ -5196,15 +5196,15 @@
       </c>
       <c r="M42" s="51">
         <f>ROUND((SUM(R14:R28)-SUM(A12:A26)),2)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N42" s="52">
         <f>R37</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O42" s="125">
         <f>M42*N42</f>
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="P42" s="126"/>
       <c r="Q42" s="50" t="s">
@@ -5213,7 +5213,7 @@
       <c r="R42" s="53"/>
       <c r="S42" s="54">
         <f>SUM(Q13:Q28)</f>
-        <v>45.000000000000007</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="V42" s="5" t="s">
         <v>101</v>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="N43" s="52">
         <f>R37</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O43" s="125">
         <f>M43*N43</f>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="N44" s="56">
         <f>R37*1.5</f>
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="O44" s="77">
         <f>M44*N44</f>
@@ -5278,7 +5278,7 @@
       <c r="R44" s="57"/>
       <c r="S44" s="58">
         <f>SUM(O42:O44)</f>
-        <v>585</v>
+        <v>240</v>
       </c>
       <c r="V44" s="5" t="s">
         <v>81</v>
@@ -12662,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="L16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13013,20 +13013,20 @@
         <v>54</v>
       </c>
       <c r="N14" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O14" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="41">
         <f>ABS(((N14-O14)*24))+ABS(((Q14-P14)*24))</f>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S14" s="41">
         <f t="shared" ref="S14:S29" si="7">R14-T14</f>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T14" s="42">
         <f t="shared" ref="T14:T29" si="8">IF(R14&gt;$X$6, R14-$X$6, 0)</f>
@@ -13193,15 +13193,15 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="4"/>
-        <v>-15.499999999999993</v>
+        <v>-29.999999999999993</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="5"/>
-        <v>24.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" ref="G17:G25" si="11">IF(H17=7,SUM(R13:R19),"0.0")</f>
-        <v>24.500000000000007</v>
+        <v>10.000000000000005</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="6"/>
@@ -13223,17 +13223,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="O17" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="11">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>0.99999999999999911</v>
       </c>
       <c r="T17" s="43">
         <f t="shared" si="8"/>
@@ -13289,17 +13289,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="O18" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
       <c r="R18" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="S18" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>1.0000000000000018</v>
       </c>
       <c r="T18" s="43">
         <f t="shared" si="8"/>
@@ -13355,20 +13355,20 @@
         <v>59</v>
       </c>
       <c r="N19" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O19" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
       <c r="R19" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S19" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T19" s="43">
         <f t="shared" si="8"/>
@@ -13490,20 +13490,20 @@
         <v>61</v>
       </c>
       <c r="N21" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O21" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S21" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T21" s="43">
         <f t="shared" si="8"/>
@@ -13559,20 +13559,20 @@
         <v>62</v>
       </c>
       <c r="N22" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O22" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S22" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T22" s="43">
         <f t="shared" si="8"/>
@@ -13625,20 +13625,20 @@
         <v>63</v>
       </c>
       <c r="N23" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O23" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S23" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T23" s="43">
         <f t="shared" si="8"/>
@@ -13664,15 +13664,15 @@
       </c>
       <c r="E24" s="6">
         <f t="shared" si="4"/>
-        <v>-15.499999999999993</v>
+        <v>-32</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="5"/>
-        <v>24.500000000000007</v>
+        <v>8</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="11"/>
-        <v>24.500000000000007</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="6"/>
@@ -13694,17 +13694,17 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="O24" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="11">
         <f t="shared" si="10"/>
-        <v>4.5</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="S24" s="11">
         <f t="shared" si="7"/>
-        <v>4.5</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="T24" s="43">
         <f t="shared" si="8"/>
@@ -13823,20 +13823,20 @@
         <v>66</v>
       </c>
       <c r="N26" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O26" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="11">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S26" s="11">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T26" s="43">
         <f t="shared" si="8"/>
@@ -13924,17 +13924,17 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="O28" s="39">
-        <v>0.89583333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
       <c r="R28" s="61">
         <f>ABS(((N28-O28)*24))+ABS(((Q28-P28)*24))</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="S28" s="61">
         <f>R28-T28</f>
-        <v>4.0000000000000018</v>
+        <v>2.0000000000000009</v>
       </c>
       <c r="T28" s="62">
         <f>IF(R28&gt;$X$6, R28-$X$6, 0)</f>
@@ -13952,20 +13952,20 @@
         <v>69</v>
       </c>
       <c r="N29" s="39">
-        <v>0.72916666666666663</v>
+        <v>0</v>
       </c>
       <c r="O29" s="39">
-        <v>0.89583333333333337</v>
+        <v>0</v>
       </c>
       <c r="P29" s="40"/>
       <c r="Q29" s="40"/>
       <c r="R29" s="26">
         <f t="shared" si="10"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="S29" s="26">
         <f t="shared" si="7"/>
-        <v>4.0000000000000018</v>
+        <v>0</v>
       </c>
       <c r="T29" s="44">
         <f t="shared" si="8"/>
@@ -14106,7 +14106,7 @@
       </c>
       <c r="R38" s="105"/>
       <c r="S38" s="90">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T38" s="91"/>
       <c r="W38" s="5" t="s">
@@ -14207,15 +14207,15 @@
       </c>
       <c r="N43" s="51">
         <f>ROUND((SUM(S14:S29)-SUM(A12:A27)),2)</f>
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="O43" s="52">
         <f>S38</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P43" s="125">
         <f>N43*O43</f>
-        <v>741</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="126"/>
       <c r="R43" s="50" t="s">
@@ -14224,7 +14224,7 @@
       <c r="S43" s="53"/>
       <c r="T43" s="54">
         <f>SUM(R14:R29)</f>
-        <v>57.000000000000007</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="W43" s="5" t="s">
         <v>101</v>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="O44" s="52">
         <f>S38</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P44" s="125">
         <f>N44*O44</f>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="O45" s="56">
         <f>S38*1.5</f>
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="P45" s="77">
         <f>N45*O45</f>
@@ -14289,7 +14289,7 @@
       <c r="S45" s="57"/>
       <c r="T45" s="58">
         <f>SUM(P43:P45)</f>
-        <v>741</v>
+        <v>240</v>
       </c>
       <c r="W45" s="5" t="s">
         <v>81</v>
